--- a/xlsx/約旦_intext.xlsx
+++ b/xlsx/約旦_intext.xlsx
@@ -29,7 +29,7 @@
     <t>约旦国旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_約旦</t>
+    <t>体育运动_体育运动_伊朗_約旦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E6%97%A6%E5%9C%8B%E5%BE%BD</t>
